--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2778.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2778.xlsx
@@ -354,7 +354,7 @@
         <v>2.430053111605766</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.368913789298459</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2778.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2778.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168114763810977</v>
+        <v>1.418179035186768</v>
       </c>
       <c r="B1">
-        <v>2.430053111605766</v>
+        <v>1.974778413772583</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.510717391967773</v>
       </c>
       <c r="D1">
-        <v>2.368913789298459</v>
+        <v>3.648233652114868</v>
       </c>
       <c r="E1">
-        <v>1.231415239362784</v>
+        <v>0.8450916409492493</v>
       </c>
     </row>
   </sheetData>
